--- a/semiconductors/section3/topic5/assets/ab-DAC.xlsx
+++ b/semiconductors/section3/topic5/assets/ab-DAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-Computer-Engineering\CMPE1400-Semiconductors\Semiconductors-Private\n-Operational-Amplifiers\k-Digital-to-Analog-Conversion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbinl\Documents\GitHub\CMPE1400\n-Operational-Amplifiers\k-Digital-to-Analog-Conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F0613F-A2BA-4B1C-A9C7-103C2D062690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD567AA1-A699-43A6-A8B7-D85D8E05109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{A836C8EE-5F87-499F-8280-F517B9E3A373}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A836C8EE-5F87-499F-8280-F517B9E3A373}"/>
   </bookViews>
   <sheets>
     <sheet name="1bit" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="44">
   <si>
     <t>MSB</t>
   </si>
@@ -129,19 +129,10 @@
     <t>9C</t>
   </si>
   <si>
-    <t>goal seek to get Second Stage Gain given the Second Stage Step Size</t>
-  </si>
-  <si>
     <t>Av second stage = Av_both_stages/Av_first_stage= 0.7758/0.5=1.552</t>
   </si>
   <si>
     <t>Av_both_stages=Vout/Vin=2.56/3.3=0.7758</t>
-  </si>
-  <si>
-    <t>First Stage Gain when only MSB is 1 and all others are 0 is Num/Den=0.5</t>
-  </si>
-  <si>
-    <t>An alternative way to calculate the Second Stage Gain (Mobius)</t>
   </si>
   <si>
     <t>Calculating the Second Stage Gain</t>
@@ -154,6 +145,33 @@
   </si>
   <si>
     <t>2nd Stage Out</t>
+  </si>
+  <si>
+    <t>Analog Discovery 2 digital output voltage is 3.3VDC</t>
+  </si>
+  <si>
+    <t>These specs come from Lab docs question 28 of Page1</t>
+  </si>
+  <si>
+    <t>Overall Step Size</t>
+  </si>
+  <si>
+    <t>This step size includes both stage1 and stage2</t>
+  </si>
+  <si>
+    <t>goal seek to get Second Stage Gain given the Overall Step Size</t>
+  </si>
+  <si>
+    <t>An alternative way to calculate the Second Stage Gain (Mobius Q29)</t>
+  </si>
+  <si>
+    <t>Secnd Stage Vout when only MSB is 1 and all others are 0 is (0.02*128)=2.56 V</t>
+  </si>
+  <si>
+    <t>Num/Den = Av_first_stage</t>
+  </si>
+  <si>
+    <t>Vref = Vin</t>
   </si>
 </sst>
 </file>
@@ -181,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,12 +236,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -237,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,9 +282,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -624,25 +633,25 @@
       <selection activeCell="K11" sqref="K11:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.34765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.84765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -653,7 +662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
@@ -661,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
@@ -681,25 +690,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="F4" s="14" t="str">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="str">
         <f>_xlfn.CONCAT("First Stage Vout = Vref (b0*1/2)")</f>
         <v>First Stage Vout = Vref (b0*1/2)</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="F5" s="14" t="str">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="str">
         <f>_xlfn.CONCAT("First Stage Vout = Vref (b0*1/2)")</f>
         <v>First Stage Vout = Vref (b0*1/2)</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
@@ -712,7 +721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
@@ -732,22 +741,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -776,16 +785,16 @@
         <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,17 +842,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,7 +872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -930,26 +939,26 @@
       <selection activeCell="L11" sqref="L11:N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.34765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.84765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="1"/>
+    <col min="14" max="14" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
@@ -960,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
@@ -968,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
@@ -988,25 +997,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="G4" s="15" t="str">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G4" s="14" t="str">
         <f>_xlfn.CONCAT("First Stage Vout = Vref (b1*1/2 + b0*1/4)")</f>
         <v>First Stage Vout = Vref (b1*1/2 + b0*1/4)</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="G5" s="15" t="str">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G5" s="14" t="str">
         <f>_xlfn.CONCAT("First Stage Vout = Vref (b1*2/4 + b0*1/4)")</f>
         <v>First Stage Vout = Vref (b1*2/4 + b0*1/4)</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1019,7 +1028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1055,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -1063,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1095,16 +1104,16 @@
         <v>11</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1156,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>0</v>
       </c>
@@ -1172,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1248,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1256,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>1</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>1</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1450,27 +1459,27 @@
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.34765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.84765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="1"/>
+    <col min="15" max="15" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1481,7 +1490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1489,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1509,25 +1518,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="H4" s="15" t="str">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H4" s="14" t="str">
         <f>_xlfn.CONCAT("First Stage Vout = Vref (b2*1/2 + b1*1/4 + b0*1/8)")</f>
         <v>First Stage Vout = Vref (b2*1/2 + b1*1/4 + b0*1/8)</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="H5" s="15" t="str">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H5" s="14" t="str">
         <f>_xlfn.CONCAT("First Stage Vout = Vref (b2*4/8 + b1*2/8 + b0*1/8)")</f>
         <v>First Stage Vout = Vref (b2*4/8 + b1*2/8 + b0*1/8)</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1540,7 +1549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1579,7 +1588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1625,16 +1634,16 @@
         <v>11</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1701,7 +1710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>0</v>
       </c>
@@ -1712,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1738,7 +1747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1806,7 +1815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>0</v>
       </c>
@@ -1817,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1843,7 +1852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1900,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1911,7 +1920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>0</v>
       </c>
@@ -1922,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1948,7 +1957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -2005,7 +2014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
@@ -2016,7 +2025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -2027,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -2053,7 +2062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -2110,7 +2119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>1</v>
       </c>
@@ -2132,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +2167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -2214,7 +2223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
@@ -2225,7 +2234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>1</v>
       </c>
@@ -2236,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -2262,7 +2271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -2319,7 +2328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
@@ -2330,7 +2339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>1</v>
       </c>
@@ -2341,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -2442,27 +2451,27 @@
       <selection activeCell="N11" sqref="N11:P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.84765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.34765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.84765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="1"/>
+    <col min="7" max="7" width="3.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2481,7 +2490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2501,7 +2510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I4" s="3" t="str">
         <f>_xlfn.CONCAT("First Stage Vout = Vref (b3*1/2 + b2*1/4 + b1*1/8 + bo*1/16)")</f>
         <v>First Stage Vout = Vref (b3*1/2 + b2*1/4 + b1*1/8 + bo*1/16)</v>
@@ -2510,7 +2519,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I5" s="3" t="str">
         <f>_xlfn.CONCAT("First Stage Vout = Vref (b3*8/16 + b2*4/16 + b1*2/16 + bo*1/16)")</f>
         <v>First Stage Vout = Vref (b3*8/16 + b2*4/16 + b1*2/16 + bo*1/16)</v>
@@ -2519,7 +2528,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2532,7 +2541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2552,7 +2561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2560,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2574,7 +2583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -2588,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2626,16 +2635,16 @@
         <v>11</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2695,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2709,7 +2718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>0</v>
       </c>
@@ -2723,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -2752,7 +2761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -2812,7 +2821,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
@@ -2826,7 +2835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>0</v>
       </c>
@@ -2840,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +2878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -2929,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +2952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>0</v>
       </c>
@@ -2957,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2986,7 +2995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3046,7 +3055,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
@@ -3060,7 +3069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>0</v>
       </c>
@@ -3074,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3103,7 +3112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -3163,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>0</v>
       </c>
@@ -3191,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -3220,7 +3229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -3280,7 +3289,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
@@ -3294,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>0</v>
       </c>
@@ -3308,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -3337,7 +3346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -3397,7 +3406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3411,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>0</v>
       </c>
@@ -3425,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -3454,7 +3463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -3514,7 +3523,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>2</v>
       </c>
@@ -3528,7 +3537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>1</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -3571,7 +3580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>2</v>
       </c>
@@ -3645,7 +3654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>1</v>
       </c>
@@ -3659,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -3688,7 +3697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -3748,7 +3757,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>2</v>
       </c>
@@ -3762,7 +3771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>1</v>
       </c>
@@ -3776,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -3805,7 +3814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -3865,7 +3874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>2</v>
       </c>
@@ -3879,7 +3888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>1</v>
       </c>
@@ -3893,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -3922,7 +3931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>2</v>
       </c>
@@ -3996,7 +4005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>1</v>
       </c>
@@ -4010,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -4039,7 +4048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -4099,7 +4108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>1</v>
       </c>
@@ -4127,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -4156,7 +4165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -4216,7 +4225,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>2</v>
       </c>
@@ -4230,7 +4239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>1</v>
       </c>
@@ -4244,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -4273,7 +4282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
@@ -4333,7 +4342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>2</v>
       </c>
@@ -4347,7 +4356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>1</v>
       </c>
@@ -4361,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -4390,7 +4399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -4460,29 +4469,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEC33C6-32F9-4C17-B780-641E93B9225B}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="2.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="2.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.84765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.34765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.046875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="57.6484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="1"/>
+    <col min="11" max="11" width="3.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="64.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
@@ -4492,8 +4501,11 @@
       <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R1" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
@@ -4501,7 +4513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4521,7 +4533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M4" s="3" t="str">
         <f>_xlfn.CONCAT("First Stage Vout = Vref (b7*1/2 + b6*1/4 + b5*1/8 + b4*1/16 + b3*1/32 + b2*1/64 + b1*1/128 + bo*1/256)")</f>
         <v>First Stage Vout = Vref (b7*1/2 + b6*1/4 + b5*1/8 + b4*1/16 + b3*1/32 + b2*1/64 + b1*1/128 + bo*1/256)</v>
@@ -4530,7 +4542,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M5" s="3" t="str">
         <f>_xlfn.CONCAT("First Stage Vout = Vref (b7*128/256 + b6*64/256 + b5*32/256 + b4*16/256 + b3*8/256 + b2*4/256 + b1*2/256 + bo*1/256)")</f>
         <v>First Stage Vout = Vref (b7*128/256 + b6*64/256 + b5*32/256 + b4*16/256 + b3*8/256 + b2*4/256 + b1*2/256 + bo*1/256)</v>
@@ -4539,7 +4551,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M6" s="2" t="s">
         <v>18</v>
       </c>
@@ -4551,10 +4563,13 @@
       <c r="Q6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M7" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N7" s="1" t="str">
         <f>_xlfn.CONCAT("Vrange/(power(2,n)-1)")</f>
@@ -4571,8 +4586,11 @@
       <c r="Q7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="R7" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4580,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -4609,7 +4627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -4638,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4673,10 +4691,10 @@
         <v>21</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>8</v>
@@ -4688,7 +4706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -4748,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4756,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -4785,7 +4803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -4814,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -4849,10 +4867,10 @@
         <v>21</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>8</v>
@@ -4863,11 +4881,11 @@
       <c r="P17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R17" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="R17" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -4930,10 +4948,10 @@
         <v>2.000625E-2</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -4941,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -4970,7 +4988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -4999,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -5034,10 +5052,10 @@
         <v>21</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>8</v>
@@ -5049,7 +5067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -5113,7 +5131,7 @@
         <v>0.62019374999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -5121,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -5150,7 +5168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>80</v>
       </c>
@@ -5179,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -5214,10 +5232,10 @@
         <v>21</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>8</v>
@@ -5228,11 +5246,11 @@
       <c r="P29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R29" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="R29" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -5268,14 +5286,14 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="6">
         <f>SUM(B30:I30)</f>
         <v>128</v>
       </c>
       <c r="K30" s="1">
         <v>256</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="10">
         <f>J30/K30</f>
         <v>0.5</v>
       </c>
@@ -5295,16 +5313,16 @@
         <f>N30*O30</f>
         <v>2.5608</v>
       </c>
-      <c r="R30" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="R30" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R31" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
@@ -5312,10 +5330,10 @@
         <v>1</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
@@ -5344,7 +5362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -5373,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -5408,10 +5426,10 @@
         <v>21</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>8</v>
@@ -5423,7 +5441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -5487,7 +5505,7 @@
         <v>3.1209749999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -5495,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -5524,7 +5542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -5553,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -5588,10 +5606,10 @@
         <v>21</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>8</v>
@@ -5603,7 +5621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
